--- a/extra_information/car_behaviour.xlsx
+++ b/extra_information/car_behaviour.xlsx
@@ -16,9 +16,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Obstacle Present On Left?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+  <si>
+    <t>Obstacle Present On The Right?</t>
+  </si>
+  <si>
+    <t>Obstacle Present On The Left?</t>
+  </si>
+  <si>
+    <t>Obstacle Present At The Front?</t>
+  </si>
+  <si>
+    <t>Behaviour:</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Turn on headlights, go forward for 10 milliseconds</t>
+  </si>
+  <si>
+    <t>Turn off headlights, turn right 45 degrees</t>
+  </si>
+  <si>
+    <t>Turn off headlights, turn left 45 degrees</t>
+  </si>
+  <si>
+    <t>Turn off headlights, turn right or left 45 degrees (randomly decided)</t>
+  </si>
+  <si>
+    <t>Turn off headlights, turn on taillights, go back 50mm, turn right or left 90 degrees (randomly decided)</t>
+  </si>
+  <si>
+    <t>Turn off headlights, turn on taillights, go back 50mm, turn right 90 degrees (randomly decided)</t>
+  </si>
+  <si>
+    <t>Turn off headlights, turn on taillights, go back 50mm, turn left 90 degrees (randomly decided)</t>
   </si>
 </sst>
 </file>
@@ -350,17 +386,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2"/>
+  <dimension ref="C2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="90.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:6">
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
